--- a/data/names.xlsx
+++ b/data/names.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime\Documents\innovati\census_data_project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime\Documents\innovati\REST_API\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E17527-8B59-416D-9DAA-1FE59865AA44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D42FDD-9995-457C-B142-0441E9954871}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
   <si>
     <t>Code</t>
   </si>
@@ -302,6 +302,15 @@
   </si>
   <si>
     <t>Employee</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1192,13 +1201,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,7 +1217,7 @@
     <col min="3" max="3" width="45.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -1233,8 +1242,11 @@
       <c r="H1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1259,8 +1271,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1285,8 +1300,11 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1311,8 +1329,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1337,8 +1358,11 @@
       <c r="H5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1363,8 +1387,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1389,8 +1416,11 @@
       <c r="H7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1415,8 +1445,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1441,8 +1474,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1467,8 +1503,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1493,8 +1532,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1519,8 +1561,11 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1571,8 +1619,11 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1597,8 +1648,11 @@
       <c r="H15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1623,8 +1677,11 @@
       <c r="H16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1649,8 +1706,11 @@
       <c r="H17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1675,8 +1735,11 @@
       <c r="H18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1701,8 +1764,11 @@
       <c r="H19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1727,8 +1793,11 @@
       <c r="H20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1753,8 +1822,11 @@
       <c r="H21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1779,8 +1851,11 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1805,8 +1880,11 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1831,8 +1909,11 @@
       <c r="H24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1857,8 +1938,11 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1883,8 +1967,11 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -1909,8 +1996,11 @@
       <c r="H27" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -1935,8 +2025,11 @@
       <c r="H28" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -1961,8 +2054,11 @@
       <c r="H29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1987,8 +2083,11 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -2013,8 +2112,11 @@
       <c r="H31" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2039,8 +2141,11 @@
       <c r="H32" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2065,8 +2170,11 @@
       <c r="H33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2091,8 +2199,11 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2117,8 +2228,11 @@
       <c r="H35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2143,8 +2257,11 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2169,8 +2286,11 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2195,8 +2315,11 @@
       <c r="H38" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2221,8 +2344,11 @@
       <c r="H39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2247,8 +2373,11 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2273,8 +2402,11 @@
       <c r="H41" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2299,8 +2431,11 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2324,6 +2459,9 @@
       </c>
       <c r="H43" s="5">
         <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/names.xlsx
+++ b/data/names.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime\Documents\innovati\REST_API\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime\Documents\GitHub\census_api_challenge\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D42FDD-9995-457C-B142-0441E9954871}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343AD5AD-35F6-4FFF-AA96-171B14ACECD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1204,10 +1204,10 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
